--- a/public/file/Template Master Wilayah.xlsx
+++ b/public/file/Template Master Wilayah.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanief/Documents/Kerjaan/BPS 3300/SID/Pak Harry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanief/Documents/Kerjaan/BPS 3300/SID/Pak Harry/example-app/public/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1036ED-F987-C148-B2A0-75F14C642747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6122DD0-E79A-994A-A461-C22D7AB87752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{273B08EC-E2C4-419C-9EAA-6AA97DCD268B}"/>
   </bookViews>
@@ -35,29 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAWA TENGAH              </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>02</t>
   </si>
   <si>
-    <t xml:space="preserve">BANYUMAS                  </t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUMBIR                         </t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
     <t xml:space="preserve">KARANGGAYAM                                 </t>
   </si>
   <si>
@@ -88,13 +70,25 @@
     <t>0022</t>
   </si>
   <si>
-    <t xml:space="preserve">RT 01 RW 06 DUSUN 2                                                                                                                                                                      </t>
-  </si>
-  <si>
     <t>kode_wilayahterkecil</t>
   </si>
   <si>
     <t>nama_wilayahterkecil</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>BANYUMAS</t>
+  </si>
+  <si>
+    <t>LUMBIR</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT 01 RW 06 DUSUN 2    </t>
   </si>
 </sst>
 </file>
@@ -139,15 +133,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,459 +457,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4E1AF3-3BF3-4F21-B5AC-D349878B072E}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="2"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="2"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="2"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="2"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="2"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H132">
-    <sortCondition ref="A2:A132"/>
-    <sortCondition ref="C2:C132"/>
-    <sortCondition ref="E2:E132"/>
-    <sortCondition ref="G2:G132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2">
+    <sortCondition ref="A2"/>
+    <sortCondition ref="C2"/>
+    <sortCondition ref="E2"/>
+    <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
